--- a/1.原创-应用安全/安全检查问卷/软件安全评估.xlsx
+++ b/1.原创-应用安全/安全检查问卷/软件安全评估.xlsx
@@ -1007,7 +1007,7 @@
   <dimension ref="A1:A12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
